--- a/data/trans_camb/P16A18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,71</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,65</t>
         </is>
       </c>
     </row>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 9,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,48; 2,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,01; -5,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,58; 9,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,48; 2,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,01; -5,34</t>
         </is>
       </c>
     </row>
@@ -753,32 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,02%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,36%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,02%</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 104,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,2; 25,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,94; -51,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,05; 104,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,2; 25,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-96,94; -51,05</t>
         </is>
       </c>
     </row>
@@ -863,32 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,26</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 5,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; -0,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,02; -5,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 5,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,19; -0,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,02; -5,83</t>
         </is>
       </c>
     </row>
@@ -969,32 +969,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,46%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,63%</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,71; 38,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,95; -2,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,02; -39,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,71; 38,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,95; -2,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,02; -39,7</t>
         </is>
       </c>
     </row>
@@ -1079,32 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,21</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 3,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,23; 1,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; -1,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,15; 3,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,23; 1,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,64; -1,99</t>
         </is>
       </c>
     </row>
@@ -1185,32 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,11%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,2%</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,12; 65,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,8; 24,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,89; -34,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,12; 65,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,8; 24,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,89; -34,27</t>
         </is>
       </c>
     </row>
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,57</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 0,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 1,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; -0,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,72; 0,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,99; 1,1</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,57; -0,08</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,44%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,69%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,44%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,13%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,15; 23,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,21; 55,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,25; 6,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,15; 23,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,21; 55,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-74,25; 6,11</t>
         </is>
       </c>
     </row>
@@ -1511,32 +1511,32 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1627,12 +1627,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; -0,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 0,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 0,09</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; -0,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 0,72</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,32; 0,09</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,81%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,8%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,81%</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,06</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,56</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 1,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; -1,05</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; -3,69</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 1,47</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; -1,05</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,58; -3,69</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,42%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,77%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-32,42%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-71,77%</t>
         </is>
       </c>
     </row>
@@ -2102,32 +2102,32 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,97; 25,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,74; -17,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,37; -62,94</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,97; 25,28</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,74; -17,79</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,37; -62,94</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-8,65</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,65</t>
+          <t>-8,77</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -5,34</t>
+          <t>-12,07; -5,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -5,34</t>
+          <t>-12,07; -5,62</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-83,02%</t>
+          <t>-84,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-83,02%</t>
+          <t>-84,16%</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-96,94; -51,05</t>
+          <t>-96,57; -54,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-96,94; -51,05</t>
+          <t>-96,57; -54,53</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,26</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,26</t>
+          <t>-9,73</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -5,83</t>
+          <t>-13,6; -6,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,02; -5,83</t>
+          <t>-13,6; -6,16</t>
         </is>
       </c>
     </row>
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-58,63%</t>
+          <t>-61,62%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-58,63%</t>
+          <t>-61,62%</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-74,02; -39,7</t>
+          <t>-78,66; -42,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-74,02; -39,7</t>
+          <t>-78,66; -42,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,21</t>
+          <t>-4,2</t>
         </is>
       </c>
     </row>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; -1,99</t>
+          <t>-6,63; -1,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,64; -1,99</t>
+          <t>-6,63; -1,97</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-62,2%</t>
+          <t>-62,05%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-62,2%</t>
+          <t>-62,05%</t>
         </is>
       </c>
     </row>
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,89; -34,27</t>
+          <t>-78,72; -33,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-78,89; -34,27</t>
+          <t>-78,72; -33,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,7</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-1,7</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,08</t>
+          <t>-3,6; -0,13</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,08</t>
+          <t>-3,6; -0,13</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-51,13%</t>
+          <t>-51,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-51,13%</t>
+          <t>-51,72%</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,25; 6,11</t>
+          <t>-75,84; 2,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-74,25; 6,11</t>
+          <t>-75,84; 2,92</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,12</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
     </row>
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1727,32 +1727,32 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -1780,32 +1780,32 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,6; -0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,72</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,09</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,6; -0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,72</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 0,09</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
     </row>
@@ -1833,32 +1833,32 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-10,8%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-65,81%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-10,8%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-65,81%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-0,98</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,47</t>
+          <t>-2,95; -0,34</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -1,05</t>
+          <t>-2,21; 0,79</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,58; -3,69</t>
+          <t>-2,96; -0,13</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,47</t>
+          <t>-2,95; -0,34</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -1,05</t>
+          <t>-2,21; 0,79</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,58; -3,69</t>
+          <t>-2,96; -0,13</t>
         </is>
       </c>
     </row>
@@ -2049,32 +2049,32 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-32,42%</t>
+          <t>-38,04%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-71,77%</t>
+          <t>-90,7%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-32,42%</t>
+          <t>-38,04%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-71,77%</t>
+          <t>-90,7%</t>
         </is>
       </c>
     </row>
@@ -2102,44 +2102,261 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-2,06</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-4,62</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-2,06</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-4,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 1,47</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; -1,05</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; -3,77</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 1,47</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; -1,05</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; -3,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-32,42%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-72,6%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>3,58%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-32,42%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-72,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
           <t>-14,97; 25,28</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-44,74; -17,79</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-79,37; -62,94</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-80,63; -64,14</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-14,97; 25,28</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-44,74; -17,79</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-79,37; -62,94</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-80,63; -64,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A18-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A18-Edad-trans_camb.xlsx
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 9,36</t>
+          <t>0,61; 9,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,32</t>
+          <t>-5,61; 2,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -5,62</t>
+          <t>-11,85; -5,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 9,36</t>
+          <t>0,61; 9,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,32</t>
+          <t>-5,61; 2,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -5,62</t>
+          <t>-11,85; -5,02</t>
         </is>
       </c>
     </row>
@@ -806,32 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 104,87</t>
+          <t>2,55; 110,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,2; 25,91</t>
+          <t>-46,28; 25,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-96,57; -54,53</t>
+          <t>-96,75; -49,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 104,87</t>
+          <t>2,55; 110,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,2; 25,91</t>
+          <t>-46,28; 25,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-96,57; -54,53</t>
+          <t>-96,75; -49,52</t>
         </is>
       </c>
     </row>
@@ -916,32 +916,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 5,36</t>
+          <t>-2,57; 5,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -0,51</t>
+          <t>-8,6; -1,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,6; -6,16</t>
+          <t>-13,7; -5,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 5,36</t>
+          <t>-2,57; 5,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,19; -0,51</t>
+          <t>-8,6; -1,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-13,6; -6,16</t>
+          <t>-13,7; -5,95</t>
         </is>
       </c>
     </row>
@@ -1022,32 +1022,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 38,83</t>
+          <t>-14,89; 42,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,95; -2,63</t>
+          <t>-47,88; -7,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,66; -42,82</t>
+          <t>-79,36; -40,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 38,83</t>
+          <t>-14,89; 42,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-46,95; -2,63</t>
+          <t>-47,88; -7,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-78,66; -42,82</t>
+          <t>-79,36; -40,89</t>
         </is>
       </c>
     </row>
@@ -1132,32 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 3,5</t>
+          <t>-2,36; 3,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,22</t>
+          <t>-4,1; 1,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; -1,97</t>
+          <t>-6,61; -2,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 3,5</t>
+          <t>-2,36; 3,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 1,22</t>
+          <t>-4,1; 1,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-6,63; -1,97</t>
+          <t>-6,61; -2,06</t>
         </is>
       </c>
     </row>
@@ -1238,32 +1238,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 65,08</t>
+          <t>-28,81; 62,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 24,83</t>
+          <t>-50,64; 28,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,72; -33,9</t>
+          <t>-79,49; -36,92</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 65,08</t>
+          <t>-28,81; 62,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,8; 24,83</t>
+          <t>-50,64; 28,44</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-78,72; -33,9</t>
+          <t>-79,49; -36,92</t>
         </is>
       </c>
     </row>
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,14</t>
+          <t>-3,49; 0,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,1</t>
+          <t>-2,8; 1,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,13</t>
+          <t>-3,53; -0,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 0,14</t>
+          <t>-3,49; 0,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 1,1</t>
+          <t>-2,8; 1,09</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; -0,13</t>
+          <t>-3,53; -0,18</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-78,15; 23,53</t>
+          <t>-79,53; 19,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-65,21; 55,66</t>
+          <t>-63,14; 54,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-75,84; 2,92</t>
+          <t>-75,15; -1,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-78,15; 23,53</t>
+          <t>-79,53; 19,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-65,21; 55,66</t>
+          <t>-63,14; 54,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-75,84; 2,92</t>
+          <t>-75,15; -1,28</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,25</t>
+          <t>0,0; 1,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
     </row>
@@ -1785,12 +1785,12 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,64</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,36</t>
+          <t>0,0; 1,37</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,64</t>
+          <t>0,0; 0,62</t>
         </is>
       </c>
     </row>
@@ -1996,32 +1996,32 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,34</t>
+          <t>-3,1; -0,33</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,79</t>
+          <t>-2,2; 0,67</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,96; -0,13</t>
+          <t>-2,87; -0,13</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,95; -0,34</t>
+          <t>-3,1; -0,33</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 0,79</t>
+          <t>-2,2; 0,67</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,96; -0,13</t>
+          <t>-2,87; -0,13</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,47</t>
+          <t>-0,89; 1,38</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -1,05</t>
+          <t>-3,17; -1,07</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -3,77</t>
+          <t>-5,64; -3,59</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,47</t>
+          <t>-0,89; 1,38</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -1,05</t>
+          <t>-3,17; -1,07</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-5,65; -3,77</t>
+          <t>-5,64; -3,59</t>
         </is>
       </c>
     </row>
@@ -2318,32 +2318,32 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 25,28</t>
+          <t>-13,0; 24,73</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-44,74; -17,79</t>
+          <t>-45,58; -18,88</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-80,63; -64,14</t>
+          <t>-80,16; -62,19</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 25,28</t>
+          <t>-13,0; 24,73</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-44,74; -17,79</t>
+          <t>-45,58; -18,88</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-80,63; -64,14</t>
+          <t>-80,16; -62,19</t>
         </is>
       </c>
     </row>
